--- a/public/bulk -product-sheet-sample.xlsx
+++ b/public/bulk -product-sheet-sample.xlsx
@@ -72,8 +72,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,32 +386,25 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
